--- a/LLM-eval/file/suite/16_function_list.xlsx
+++ b/LLM-eval/file/suite/16_function_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\LLM-eval\file\suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\i-eval.git\LLM-eval\file\suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E49483-58E0-4E82-B7E6-1499F7FEB4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC400F46-BACF-491E-890B-681A2EA106AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>序号</t>
   </si>
@@ -71,159 +71,202 @@
     <t>详情</t>
   </si>
   <si>
-    <t>获取设备ID为AC001的空调基本性能参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询设备AC002的功耗和制冷量数据</t>
-  </si>
-  <si>
-    <t>获取设备AC003的能效比和噪音水平信息</t>
-  </si>
-  <si>
-    <t>查询设备AC004的风量和压缩机频率</t>
-  </si>
-  <si>
-    <t>获取设备AC005的蒸发器和冷凝器温度</t>
-  </si>
-  <si>
-    <t>查询设备AC006的制冷剂压力和电压电流</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取设备AC007的功率因数和风扇转速</t>
-  </si>
-  <si>
-    <t>查询设备AC008的基本运行状态参数</t>
-  </si>
-  <si>
-    <t>获取设备AC009的实时性能监控数据</t>
-  </si>
-  <si>
-    <t>查询设备AC010的电气参数信息</t>
-  </si>
-  <si>
-    <t>获取设备AC011的压缩机运行参数</t>
-  </si>
-  <si>
-    <t>查询设备AC012的热交换系统数据</t>
-  </si>
-  <si>
-    <t>获取设备AC013的电力消耗信息</t>
-  </si>
-  <si>
-    <t>查询设备AC014的制冷制热能力</t>
-  </si>
-  <si>
-    <t>获取设备AC015的设备运行效率</t>
-  </si>
-  <si>
-    <t>查询设备AC016的基本性能指标</t>
-  </si>
-  <si>
-    <t>获取设备AC017的实时运行参数</t>
-  </si>
-  <si>
-    <t>查询设备AC018的设备状态监控</t>
-  </si>
-  <si>
-    <t>获取设备AC019的电气特性数据</t>
-  </si>
-  <si>
-    <t>查询设备AC020的机械运行参数</t>
-  </si>
-  <si>
-    <t>获取设备AC021的即时性能数据</t>
-  </si>
-  <si>
-    <t>查询设备AC022的设备运行概况</t>
-  </si>
-  <si>
-    <t>获取设备AC023的基本技术参数</t>
-  </si>
-  <si>
-    <t>查询设备AC024的实时监控信息</t>
-  </si>
-  <si>
-    <t>获取设备AC025的设备性能快照</t>
-  </si>
-  <si>
-    <t>查询设备AC026的即时运行状态</t>
-  </si>
-  <si>
-    <t>获取设备AC027的设备基础数据</t>
-  </si>
-  <si>
-    <t>查询设备AC028的实时性能指标</t>
-  </si>
-  <si>
-    <t>获取设备AC029的设备运行参数</t>
-  </si>
-  <si>
-    <t>查询设备AC030的即时监控数据</t>
-  </si>
-  <si>
-    <t>获取设备AC031的基本性能信息</t>
-  </si>
-  <si>
-    <t>查询设备AC032的实时运行数据</t>
-  </si>
-  <si>
-    <t>获取设备AC033的设备技术参数</t>
-  </si>
-  <si>
-    <t>查询设备AC034的即时性能状态</t>
-  </si>
-  <si>
-    <t>获取设备AC035的设备基础信息</t>
-  </si>
-  <si>
-    <t>查询设备AC036的实时监控参数</t>
-  </si>
-  <si>
-    <t>获取设备AC037的设备运行指标</t>
-  </si>
-  <si>
-    <t>查询设备AC038的即时性能概况</t>
-  </si>
-  <si>
-    <t>获取设备AC039的设备基本数据</t>
-  </si>
-  <si>
-    <t>查询设备AC040的实时运行概况</t>
-  </si>
-  <si>
-    <t>获取设备AC041的设备性能参数</t>
-  </si>
-  <si>
-    <t>查询设备AC042的即时监控状态</t>
-  </si>
-  <si>
-    <t>获取设备AC043的设备技术信息</t>
-  </si>
-  <si>
-    <t>查询设备AC044的实时性能参数</t>
-  </si>
-  <si>
-    <t>获取设备AC045的设备运行信息</t>
-  </si>
-  <si>
-    <t>查询设备AC046的即时监控指标</t>
-  </si>
-  <si>
-    <t>获取设备AC047的设备基础参数</t>
-  </si>
-  <si>
-    <t>查询设备AC048的实时运行参数</t>
-  </si>
-  <si>
-    <t>获取设备AC049的设备性能概况</t>
-  </si>
-  <si>
-    <t>查询设备AC050的即时性能数据</t>
-  </si>
-  <si>
-    <t>{"completionTokens":"100","fcCount":1}</t>
+    <t>{"fcCount":1}</t>
+  </si>
+  <si>
+    <t>请帮我创建一个新的加工计划，计划名称是齿轮加工项目。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请列出当前所有的加工计划。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查看加工计划ID为P-1001的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查看计划ID为P-1001下的所有任务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请创建一个名为轴套加工的加工计划。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询计划ID为P-1002的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请列出所有加工计划。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查看计划P-1002下的所有任务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请创建一个名为法兰盘加工的加工计划。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询计划ID为P-1003的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查看计划P-1003下的所有任务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请帮我上传一个工件信息，工件编号是W-2001。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询工件编号为W-2001的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为工件W-2001上传一个批次信息，批次号为B-3001。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 请列出系统中所有的工件。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询批次ID为B-3001的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为工件W-2001上传一条运输记录。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询工件W-2001的所有运输记录。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为工件W-2001上传存储位置信息，仓库是A区-3号架。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询工件W-2001的当前存储位置。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请上传工件W-2002的信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询工件W-2002的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请列出所有工件。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为工件W-2002上传批次信息，批次号为B-3002。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 我想查询批次B-3002的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为工件W-2002上传运输记录。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询工件W-2002的运输记录。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为工件W-2002上传存储位置，仓库是B区-5号架。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询工件W-2002的存储位置。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请上传工件W-2003的信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询工件W-2003的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为工件W-2003上传批次信息，批次号为B-3003。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询批次B-3003的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为工件W-2003上传运输记录。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询工件W-2003的运输记录。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 请为工件W-2003上传存储位置，仓库是C区-7号架。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询工件W-2003的存储位置。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请帮我上传一把新刀具的信息，刀具Id为1591。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询刀具Id为1591的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为刀具Id为1591上传使用记录，使用时长为3小时，加工数量为15件。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询刀具Id为1591的使用历史。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请上传刀具Id为1592的信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 我想查询刀具Id为1592的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为刀具Id为1592上传使用记录，使用时长为2小时，加工数量为10件。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询刀具Id为1592的使用历史。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请上传刀具Id为1593的信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询刀具Id为1593的详细信息。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为刀具Id为1593上传使用记录，使用时长为4小时，加工数量为20件。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想查询刀具Id为1593的使用历史。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,13 +295,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -299,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,8 +345,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -597,7 +636,7 @@
     <col min="9" max="9" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="11.625" customWidth="1"/>
     <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="20.75" customWidth="1"/>
+    <col min="12" max="12" width="54.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -634,559 +673,559 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="372.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>27</v>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>44</v>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>45</v>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>46</v>
+      <c r="B36" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>47</v>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>48</v>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>49</v>
+      <c r="B39" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>50</v>
+      <c r="B40" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>51</v>
+      <c r="B41" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>52</v>
+      <c r="B42" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>53</v>
+      <c r="B43" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>54</v>
+      <c r="B44" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>55</v>
+      <c r="B45" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>56</v>
+      <c r="B46" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>57</v>
+      <c r="B47" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>58</v>
+      <c r="B48" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>59</v>
+      <c r="B49" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>60</v>
+      <c r="B50" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>61</v>
+      <c r="B51" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1198,12 +1237,273 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="65.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
